--- a/五只股票前复权收盘价数据.xlsx
+++ b/五只股票前复权收盘价数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lessons\金融学基础\股票有效组合和套期保值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C450F287-001A-4304-A158-FCE6D8EC95CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E280258-8FCA-401A-9E01-B3A25DC93F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47904" yWindow="14712" windowWidth="17280" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,19 +30,24 @@
     <t>日期</t>
   </si>
   <si>
-    <t>泸州老窖000568.SZ</t>
+    <t>LZLJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美的集团000333.SZ</t>
+    <t>Media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宁德时代300750.SZ</t>
+    <t>NingDe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国平安601318.SH</t>
+    <t>CNPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隆基绿能601012.SH</t>
+    <t>LJLN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -53,7 +58,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +77,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,6 +145,9 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,7 +431,7 @@
   <dimension ref="A1:F748"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -427,23 +441,23 @@
     <col min="5" max="6" width="16.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
